--- a/Menu.xlsx
+++ b/Menu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TRAINING\Web0\Session9 - 23032024\API\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{787F400C-A46D-4CFF-A6D6-016E276668C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CB7F6D0-1C14-49B0-99CD-B30784A4D759}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C91D52C3-5313-4C40-A205-ADA797ACAC04}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>title</t>
   </si>
@@ -96,48 +96,6 @@
   </si>
   <si>
     <t>img9</t>
-  </si>
-  <si>
-    <t>item10</t>
-  </si>
-  <si>
-    <t>item11</t>
-  </si>
-  <si>
-    <t>item12</t>
-  </si>
-  <si>
-    <t>item13</t>
-  </si>
-  <si>
-    <t>item14</t>
-  </si>
-  <si>
-    <t>item15</t>
-  </si>
-  <si>
-    <t>item16</t>
-  </si>
-  <si>
-    <t>img10</t>
-  </si>
-  <si>
-    <t>img11</t>
-  </si>
-  <si>
-    <t>img12</t>
-  </si>
-  <si>
-    <t>img13</t>
-  </si>
-  <si>
-    <t>img14</t>
-  </si>
-  <si>
-    <t>img15</t>
-  </si>
-  <si>
-    <t>img16</t>
   </si>
 </sst>
 </file>
@@ -515,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC5AC1EE-32E9-435B-886C-D697236E9D4C}">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:B17"/>
+      <selection activeCell="A11" sqref="A11:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -603,62 +561,6 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" t="s">
-        <v>33</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
